--- a/Examples/bfgt/bfgt_model.xlsx
+++ b/Examples/bfgt/bfgt_model.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ctorr\Documents\Proyectos\TaesLab\Examples\bfgt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{263D0B2D-7862-4AE6-B10D-140E965588B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF55FD81-9FCD-4729-8057-6468861C0B38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="7" xr2:uid="{244B8141-B151-42F3-9737-543437943E39}"/>
+    <workbookView xWindow="615" yWindow="780" windowWidth="25740" windowHeight="14700" xr2:uid="{244B8141-B151-42F3-9737-543437943E39}"/>
   </bookViews>
   <sheets>
     <sheet name="Plant Diagram" sheetId="2" r:id="rId1"/>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="83">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -307,6 +307,9 @@
   </si>
   <si>
     <t>recycle</t>
+  </si>
+  <si>
+    <t>Blast Furnace Gas</t>
   </si>
 </sst>
 </file>
@@ -392,79 +395,67 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>1</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
-          <xdr:row>1</xdr:row>
-          <xdr:rowOff>165829</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>13</xdr:col>
-          <xdr:colOff>161925</xdr:colOff>
-          <xdr:row>27</xdr:row>
-          <xdr:rowOff>145768</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="1025" name="Object 1" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1025"/>
-                </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F7293EC9-19D0-DBB9-E2AD-36D65CAEA326}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:solidFill>
-              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-            <a:extLst>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525" cap="flat" cmpd="sng">
-                  <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-                  </a:solidFill>
-                  <a:prstDash val="solid"/>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd type="none" w="med" len="med"/>
-                </a14:hiddenLine>
-              </a:ext>
-              <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-                <a14:hiddenEffects>
-                  <a:effectLst>
-                    <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
-                      <a:srgbClr val="808080"/>
-                    </a:outerShdw>
-                  </a:effectLst>
-                </a14:hiddenEffects>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Imagen 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{74730BDE-4732-2DA8-8423-8036E1270DDB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1600200" y="4124325"/>
+          <a:ext cx="9334500" cy="5010150"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -788,14 +779,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{996AB1FE-CD18-4EEF-8363-4E6A771A89E5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{996AB1FE-CD18-4EEF-8363-4E6A771A89E5}">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" workbookViewId="0">
-      <selection activeCell="D37" sqref="D37"/>
+    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="Q27" sqref="Q27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -829,34 +820,6 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
-  <oleObjects>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <oleObject shapeId="1025" r:id="rId3">
-          <objectPr defaultSize="0" autoPict="0" r:id="rId4">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>161925</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>13</xdr:col>
-                <xdr:colOff>161925</xdr:colOff>
-                <xdr:row>27</xdr:row>
-                <xdr:rowOff>142875</xdr:rowOff>
-              </to>
-            </anchor>
-          </objectPr>
-        </oleObject>
-      </mc:Choice>
-      <mc:Fallback>
-        <oleObject shapeId="1025" r:id="rId3"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-  </oleObjects>
 </worksheet>
 </file>
 
@@ -956,7 +919,7 @@
   <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -994,7 +957,7 @@
         <v>21</v>
       </c>
       <c r="C3" t="s">
-        <v>52</v>
+        <v>82</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -1641,7 +1604,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9DFC913-B828-4AEC-95E8-65C82D74D56E}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>

--- a/Examples/bfgt/bfgt_model.xlsx
+++ b/Examples/bfgt/bfgt_model.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ctorr\Documents\Proyectos\TaesLab\Examples\bfgt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF55FD81-9FCD-4729-8057-6468861C0B38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDDD4755-3567-4A07-BF7F-9F9C00D04B6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="615" yWindow="780" windowWidth="25740" windowHeight="14700" xr2:uid="{244B8141-B151-42F3-9737-543437943E39}"/>
+    <workbookView xWindow="2730" yWindow="780" windowWidth="25740" windowHeight="14700" activeTab="3" xr2:uid="{244B8141-B151-42F3-9737-543437943E39}"/>
   </bookViews>
   <sheets>
     <sheet name="Plant Diagram" sheetId="2" r:id="rId1"/>
@@ -785,7 +785,7 @@
   </sheetPr>
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" topLeftCell="A20" workbookViewId="0">
+    <sheetView showGridLines="0" showRowColHeaders="0" topLeftCell="A20" workbookViewId="0">
       <selection activeCell="Q27" sqref="Q27"/>
     </sheetView>
   </sheetViews>
@@ -1124,15 +1124,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DBA66FE-D2E6-4FCF-A11A-B748A2D8485F}">
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1:E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="15.140625" customWidth="1"/>
-    <col min="4" max="4" width="13.42578125" customWidth="1"/>
-    <col min="5" max="5" width="20.85546875" customWidth="1"/>
+    <col min="2" max="2" width="14.28515625" customWidth="1"/>
+    <col min="4" max="4" width="15.140625" customWidth="1"/>
+    <col min="5" max="5" width="22.5703125" customWidth="1"/>
+    <col min="6" max="6" width="20.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -1140,13 +1141,13 @@
         <v>1</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>48</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>16</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>50</v>
@@ -1157,13 +1158,13 @@
         <v>55</v>
       </c>
       <c r="B2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" t="s">
         <v>56</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>9</v>
-      </c>
-      <c r="D2" t="s">
-        <v>22</v>
       </c>
       <c r="E2" t="s">
         <v>74</v>
@@ -1174,13 +1175,13 @@
         <v>57</v>
       </c>
       <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" t="s">
         <v>58</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>60</v>
-      </c>
-      <c r="D3" t="s">
-        <v>22</v>
       </c>
       <c r="E3" t="s">
         <v>75</v>
@@ -1191,13 +1192,13 @@
         <v>61</v>
       </c>
       <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
         <v>59</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>62</v>
-      </c>
-      <c r="D4" t="s">
-        <v>22</v>
       </c>
       <c r="E4" t="s">
         <v>76</v>
@@ -1208,13 +1209,13 @@
         <v>63</v>
       </c>
       <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
         <v>64</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>65</v>
-      </c>
-      <c r="D5" t="s">
-        <v>22</v>
       </c>
       <c r="E5" t="s">
         <v>77</v>
@@ -1225,13 +1226,13 @@
         <v>66</v>
       </c>
       <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
         <v>67</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>68</v>
-      </c>
-      <c r="D6" t="s">
-        <v>22</v>
       </c>
       <c r="E6" t="s">
         <v>78</v>
@@ -1242,13 +1243,13 @@
         <v>69</v>
       </c>
       <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
         <v>70</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>71</v>
-      </c>
-      <c r="D7" t="s">
-        <v>22</v>
       </c>
       <c r="E7" t="s">
         <v>79</v>
@@ -1259,13 +1260,13 @@
         <v>72</v>
       </c>
       <c r="B8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" t="s">
         <v>73</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>15</v>
-      </c>
-      <c r="D8" t="s">
-        <v>26</v>
       </c>
       <c r="E8" t="s">
         <v>80</v>
@@ -1280,7 +1281,7 @@
           <x14:formula1>
             <xm:f>Validate!$B$2:$B$3</xm:f>
           </x14:formula1>
-          <xm:sqref>D2:D8</xm:sqref>
+          <xm:sqref>B2:B8</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
